--- a/Attendance JS after Eid.xlsx
+++ b/Attendance JS after Eid.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WEB Community\JavaScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB736E58-F2D5-4A77-A879-B38DE8B9290B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1BD122A-EFE3-474F-86E5-70CA5C3DE235}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-3915" windowWidth="19440" windowHeight="15150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Attendance" sheetId="1" r:id="rId1"/>
     <sheet name="©" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="checkbox" localSheetId="0">Attendance!$N$9:$N$10</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Attendance!$D:$AF</definedName>
+    <definedName name="checkbox" localSheetId="0">Attendance!$S$9:$S$10</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Attendance!$D:$AK</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Attendance!$7:$7</definedName>
     <definedName name="valuevx">42.314159</definedName>
     <definedName name="vertex42_copyright" hidden="1">"© 2017 Vertex42 LLC"</definedName>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="39">
   <si>
     <t>NAME</t>
   </si>
@@ -457,7 +457,7 @@
       <charset val="177"/>
     </font>
   </fonts>
-  <fills count="27">
+  <fills count="28">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -593,6 +593,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -910,7 +916,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -982,24 +988,6 @@
     <xf numFmtId="0" fontId="30" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="25" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="25" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="20" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="20" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="20" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="43" fillId="24" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1008,14 +996,8 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="24" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="40" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="27" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="41" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1047,11 +1029,41 @@
     <xf numFmtId="0" fontId="30" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="24" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="20" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="20" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="20" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="25" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="25" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="27" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="27" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -1525,10 +1537,10 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AJ30"/>
+  <dimension ref="A1:AO30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AG24" sqref="AG24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AL14" sqref="AL14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1542,223 +1554,248 @@
     <col min="7" max="7" width="4.25" style="2" customWidth="1"/>
     <col min="8" max="8" width="4.875" style="2" customWidth="1"/>
     <col min="9" max="9" width="4.375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="4.25" style="2" customWidth="1"/>
-    <col min="11" max="11" width="4.375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="13.625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="6.375" style="2" customWidth="1"/>
-    <col min="14" max="14" width="2.75" style="2" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="7.75" style="2" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="8" style="2" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="4.25" style="2" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="5.375" style="2" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="5.125" style="2" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="5" style="2" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="8.75" style="2" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="4.75" style="2" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="6.125" style="2" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="8.875" style="2" hidden="1" customWidth="1"/>
-    <col min="25" max="30" width="4.375" style="2" hidden="1" customWidth="1"/>
-    <col min="31" max="31" width="4.75" style="2" hidden="1" customWidth="1"/>
-    <col min="32" max="32" width="5.875" style="2" customWidth="1"/>
-    <col min="33" max="33" width="34.5" style="3" customWidth="1"/>
-    <col min="34" max="34" width="10.375" style="3" customWidth="1"/>
-    <col min="35" max="35" width="10.25" style="3" customWidth="1"/>
-    <col min="36" max="36" width="9" style="3"/>
-    <col min="37" max="16384" width="9" style="2"/>
+    <col min="10" max="15" width="4.25" style="2" customWidth="1"/>
+    <col min="16" max="16" width="4.375" style="2" customWidth="1"/>
+    <col min="17" max="17" width="13.625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="6.375" style="2" customWidth="1"/>
+    <col min="19" max="19" width="2.75" style="2" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="7.75" style="2" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="8" style="2" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="4.25" style="2" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="5.375" style="2" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="5.125" style="2" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="5" style="2" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="8.75" style="2" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="4.75" style="2" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="6.125" style="2" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="8.875" style="2" hidden="1" customWidth="1"/>
+    <col min="30" max="35" width="4.375" style="2" hidden="1" customWidth="1"/>
+    <col min="36" max="36" width="4.75" style="2" hidden="1" customWidth="1"/>
+    <col min="37" max="37" width="5.875" style="2" customWidth="1"/>
+    <col min="38" max="38" width="34.5" style="3" customWidth="1"/>
+    <col min="39" max="39" width="10.375" style="3" customWidth="1"/>
+    <col min="40" max="40" width="10.25" style="3" customWidth="1"/>
+    <col min="41" max="41" width="9" style="3"/>
+    <col min="42" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="39"/>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
-      <c r="T1" s="39"/>
-      <c r="U1" s="39"/>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39"/>
-      <c r="Z1" s="39"/>
-      <c r="AA1" s="39"/>
-      <c r="AB1" s="39"/>
-      <c r="AC1" s="39"/>
-      <c r="AD1" s="39"/>
-      <c r="AE1" s="39"/>
-      <c r="AF1" s="39"/>
-      <c r="AG1" s="40"/>
-    </row>
-    <row r="2" spans="1:36" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="41" t="s">
+    <row r="1" spans="1:41" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="33"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="33"/>
+      <c r="AC1" s="33"/>
+      <c r="AD1" s="33"/>
+      <c r="AE1" s="33"/>
+      <c r="AF1" s="33"/>
+      <c r="AG1" s="33"/>
+      <c r="AH1" s="33"/>
+      <c r="AI1" s="33"/>
+      <c r="AJ1" s="33"/>
+      <c r="AK1" s="33"/>
+      <c r="AL1" s="34"/>
+    </row>
+    <row r="2" spans="1:41" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="41"/>
-      <c r="U2" s="41"/>
-      <c r="V2" s="41"/>
-      <c r="W2" s="41"/>
-      <c r="X2" s="41"/>
-      <c r="Y2" s="41"/>
-      <c r="Z2" s="41"/>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="41"/>
-      <c r="AC2" s="41"/>
-      <c r="AD2" s="41"/>
-      <c r="AE2" s="41"/>
-      <c r="AF2" s="41"/>
-      <c r="AG2" s="40"/>
-      <c r="AH2" s="5"/>
-      <c r="AI2" s="5"/>
-      <c r="AJ2" s="5"/>
-    </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A3" s="39"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="43"/>
-      <c r="S3" s="43"/>
-      <c r="T3" s="43"/>
-      <c r="U3" s="43"/>
-      <c r="V3" s="43"/>
-      <c r="W3" s="43"/>
-      <c r="X3" s="43"/>
-      <c r="Y3" s="43"/>
-      <c r="Z3" s="43"/>
-      <c r="AA3" s="43"/>
-      <c r="AB3" s="43"/>
-      <c r="AC3" s="43"/>
-      <c r="AD3" s="43"/>
-      <c r="AE3" s="43"/>
-      <c r="AF3" s="43"/>
-      <c r="AG3" s="40"/>
-      <c r="AH3" s="7"/>
-    </row>
-    <row r="4" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="39"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="44" t="s">
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="55"/>
+      <c r="U2" s="55"/>
+      <c r="V2" s="55"/>
+      <c r="W2" s="55"/>
+      <c r="X2" s="55"/>
+      <c r="Y2" s="55"/>
+      <c r="Z2" s="55"/>
+      <c r="AA2" s="55"/>
+      <c r="AB2" s="55"/>
+      <c r="AC2" s="55"/>
+      <c r="AD2" s="55"/>
+      <c r="AE2" s="55"/>
+      <c r="AF2" s="55"/>
+      <c r="AG2" s="55"/>
+      <c r="AH2" s="55"/>
+      <c r="AI2" s="55"/>
+      <c r="AJ2" s="55"/>
+      <c r="AK2" s="55"/>
+      <c r="AL2" s="34"/>
+      <c r="AM2" s="5"/>
+      <c r="AN2" s="5"/>
+      <c r="AO2" s="5"/>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
+      <c r="W3" s="36"/>
+      <c r="X3" s="36"/>
+      <c r="Y3" s="36"/>
+      <c r="Z3" s="36"/>
+      <c r="AA3" s="36"/>
+      <c r="AB3" s="36"/>
+      <c r="AC3" s="36"/>
+      <c r="AD3" s="36"/>
+      <c r="AE3" s="36"/>
+      <c r="AF3" s="36"/>
+      <c r="AG3" s="36"/>
+      <c r="AH3" s="36"/>
+      <c r="AI3" s="36"/>
+      <c r="AJ3" s="36"/>
+      <c r="AK3" s="36"/>
+      <c r="AL3" s="34"/>
+      <c r="AM3" s="7"/>
+    </row>
+    <row r="4" spans="1:41" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="33"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="44"/>
-      <c r="P4" s="44"/>
-      <c r="Q4" s="44"/>
-      <c r="R4" s="44"/>
-      <c r="S4" s="44"/>
-      <c r="T4" s="44"/>
-      <c r="U4" s="44"/>
-      <c r="V4" s="44"/>
-      <c r="W4" s="44"/>
-      <c r="X4" s="44"/>
-      <c r="Y4" s="44"/>
-      <c r="Z4" s="44"/>
-      <c r="AA4" s="44"/>
-      <c r="AB4" s="44"/>
-      <c r="AC4" s="44"/>
-      <c r="AD4" s="44"/>
-      <c r="AE4" s="44"/>
-      <c r="AF4" s="44"/>
-      <c r="AG4" s="40"/>
-      <c r="AH4" s="11"/>
-    </row>
-    <row r="5" spans="1:36" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="39"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="39"/>
-      <c r="O5" s="39"/>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="39"/>
-      <c r="R5" s="39"/>
-      <c r="S5" s="39"/>
-      <c r="T5" s="39"/>
-      <c r="U5" s="39"/>
-      <c r="V5" s="39"/>
-      <c r="W5" s="39"/>
-      <c r="X5" s="39"/>
-      <c r="Y5" s="39"/>
-      <c r="Z5" s="39"/>
-      <c r="AA5" s="39"/>
-      <c r="AB5" s="39"/>
-      <c r="AC5" s="39"/>
-      <c r="AD5" s="39"/>
-      <c r="AE5" s="39"/>
-      <c r="AF5" s="39"/>
-      <c r="AG5" s="40"/>
-    </row>
-    <row r="6" spans="1:36" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="39"/>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="33" t="s">
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="56"/>
+      <c r="Q4" s="56"/>
+      <c r="R4" s="56"/>
+      <c r="S4" s="56"/>
+      <c r="T4" s="56"/>
+      <c r="U4" s="56"/>
+      <c r="V4" s="56"/>
+      <c r="W4" s="56"/>
+      <c r="X4" s="56"/>
+      <c r="Y4" s="56"/>
+      <c r="Z4" s="56"/>
+      <c r="AA4" s="56"/>
+      <c r="AB4" s="56"/>
+      <c r="AC4" s="56"/>
+      <c r="AD4" s="56"/>
+      <c r="AE4" s="56"/>
+      <c r="AF4" s="56"/>
+      <c r="AG4" s="56"/>
+      <c r="AH4" s="56"/>
+      <c r="AI4" s="56"/>
+      <c r="AJ4" s="56"/>
+      <c r="AK4" s="56"/>
+      <c r="AL4" s="34"/>
+      <c r="AM4" s="11"/>
+    </row>
+    <row r="5" spans="1:41" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="33"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="33"/>
+      <c r="S5" s="33"/>
+      <c r="T5" s="33"/>
+      <c r="U5" s="33"/>
+      <c r="V5" s="33"/>
+      <c r="W5" s="33"/>
+      <c r="X5" s="33"/>
+      <c r="Y5" s="33"/>
+      <c r="Z5" s="33"/>
+      <c r="AA5" s="33"/>
+      <c r="AB5" s="33"/>
+      <c r="AC5" s="33"/>
+      <c r="AD5" s="33"/>
+      <c r="AE5" s="33"/>
+      <c r="AF5" s="33"/>
+      <c r="AG5" s="33"/>
+      <c r="AH5" s="33"/>
+      <c r="AI5" s="33"/>
+      <c r="AJ5" s="33"/>
+      <c r="AK5" s="33"/>
+      <c r="AL5" s="34"/>
+    </row>
+    <row r="6" spans="1:41" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="33"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="34"/>
+      <c r="E6" s="50"/>
       <c r="F6" s="27" t="s">
         <v>37</v>
       </c>
@@ -1777,42 +1814,57 @@
       <c r="K6" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="L6" s="31" t="s">
+      <c r="L6" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="M6" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="N6" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="O6" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="P6" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q6" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="M6" s="40"/>
-      <c r="N6" s="45" t="s">
+      <c r="R6" s="34"/>
+      <c r="S6" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="39"/>
-      <c r="R6" s="39"/>
-      <c r="S6" s="39"/>
-      <c r="T6" s="39"/>
-      <c r="U6" s="39"/>
-      <c r="V6" s="39"/>
-      <c r="W6" s="39"/>
-      <c r="X6" s="39"/>
-      <c r="Y6" s="39"/>
-      <c r="Z6" s="39"/>
-      <c r="AA6" s="39"/>
-      <c r="AB6" s="39"/>
-      <c r="AC6" s="39"/>
-      <c r="AD6" s="39"/>
-      <c r="AE6" s="39"/>
-      <c r="AF6" s="39"/>
-      <c r="AG6" s="39"/>
-      <c r="AH6" s="2"/>
-      <c r="AI6" s="2"/>
-      <c r="AJ6" s="2"/>
-    </row>
-    <row r="7" spans="1:36" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="39"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="36"/>
+      <c r="T6" s="34"/>
+      <c r="U6" s="34"/>
+      <c r="V6" s="33"/>
+      <c r="W6" s="33"/>
+      <c r="X6" s="33"/>
+      <c r="Y6" s="33"/>
+      <c r="Z6" s="33"/>
+      <c r="AA6" s="33"/>
+      <c r="AB6" s="33"/>
+      <c r="AC6" s="33"/>
+      <c r="AD6" s="33"/>
+      <c r="AE6" s="33"/>
+      <c r="AF6" s="33"/>
+      <c r="AG6" s="33"/>
+      <c r="AH6" s="33"/>
+      <c r="AI6" s="33"/>
+      <c r="AJ6" s="33"/>
+      <c r="AK6" s="33"/>
+      <c r="AL6" s="33"/>
+      <c r="AM6" s="2"/>
+      <c r="AN6" s="2"/>
+      <c r="AO6" s="2"/>
+    </row>
+    <row r="7" spans="1:41" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="33"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="52"/>
       <c r="F7" s="9">
         <v>25</v>
       </c>
@@ -1822,44 +1874,53 @@
       <c r="H7" s="9">
         <v>27</v>
       </c>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
+      <c r="I7" s="9">
+        <v>28</v>
+      </c>
+      <c r="J7" s="9">
+        <v>29</v>
+      </c>
       <c r="K7" s="9"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="39"/>
-      <c r="S7" s="39"/>
-      <c r="T7" s="39"/>
-      <c r="U7" s="39"/>
-      <c r="V7" s="39"/>
-      <c r="W7" s="39"/>
-      <c r="X7" s="39"/>
-      <c r="Y7" s="39"/>
-      <c r="Z7" s="39"/>
-      <c r="AA7" s="39"/>
-      <c r="AB7" s="39"/>
-      <c r="AC7" s="39"/>
-      <c r="AD7" s="39"/>
-      <c r="AE7" s="39"/>
-      <c r="AF7" s="39"/>
-      <c r="AG7" s="39"/>
-      <c r="AH7" s="2"/>
-      <c r="AI7" s="2"/>
-      <c r="AJ7" s="2"/>
-    </row>
-    <row r="8" spans="1:36" s="4" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="49"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="54"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="34"/>
+      <c r="U7" s="34"/>
+      <c r="V7" s="33"/>
+      <c r="W7" s="33"/>
+      <c r="X7" s="33"/>
+      <c r="Y7" s="33"/>
+      <c r="Z7" s="33"/>
+      <c r="AA7" s="33"/>
+      <c r="AB7" s="33"/>
+      <c r="AC7" s="33"/>
+      <c r="AD7" s="33"/>
+      <c r="AE7" s="33"/>
+      <c r="AF7" s="33"/>
+      <c r="AG7" s="33"/>
+      <c r="AH7" s="33"/>
+      <c r="AI7" s="33"/>
+      <c r="AJ7" s="33"/>
+      <c r="AK7" s="33"/>
+      <c r="AL7" s="33"/>
+      <c r="AM7" s="2"/>
+      <c r="AN7" s="2"/>
+      <c r="AO7" s="2"/>
+    </row>
+    <row r="8" spans="1:41" s="4" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="41"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
       <c r="D8" s="8">
         <f t="shared" ref="D8:D21" ca="1" si="0">OFFSET(D8,-1,0,1,1)+1</f>
         <v>1</v>
       </c>
-      <c r="E8" s="37" t="s">
+      <c r="E8" s="31" t="s">
         <v>21</v>
       </c>
       <c r="F8" s="10"/>
@@ -1870,135 +1931,152 @@
         <v>32</v>
       </c>
       <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
+      <c r="J8" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="K8" s="10"/>
-      <c r="L8" s="29">
-        <f>COUNTA(F8:K8)</f>
-        <v>2</v>
-      </c>
-      <c r="M8" s="46"/>
-      <c r="N8" s="47" t="s">
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="29">
+        <f>COUNTA(F8:P8)</f>
+        <v>3</v>
+      </c>
+      <c r="R8" s="38"/>
+      <c r="S8" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="O8" s="40"/>
-      <c r="P8" s="48"/>
-      <c r="Q8" s="49"/>
-      <c r="R8" s="49"/>
-      <c r="S8" s="49"/>
-      <c r="T8" s="49"/>
-      <c r="U8" s="49"/>
-      <c r="V8" s="49"/>
-      <c r="W8" s="49"/>
-      <c r="X8" s="49"/>
-      <c r="Y8" s="49"/>
-      <c r="Z8" s="49"/>
-      <c r="AA8" s="49"/>
-      <c r="AB8" s="49"/>
-      <c r="AC8" s="49"/>
-      <c r="AD8" s="49"/>
-      <c r="AE8" s="49"/>
-      <c r="AF8" s="49"/>
-      <c r="AG8" s="49"/>
-    </row>
-    <row r="9" spans="1:36" s="4" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="49"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
+      <c r="T8" s="34"/>
+      <c r="U8" s="40"/>
+      <c r="V8" s="41"/>
+      <c r="W8" s="41"/>
+      <c r="X8" s="41"/>
+      <c r="Y8" s="41"/>
+      <c r="Z8" s="41"/>
+      <c r="AA8" s="41"/>
+      <c r="AB8" s="41"/>
+      <c r="AC8" s="41"/>
+      <c r="AD8" s="41"/>
+      <c r="AE8" s="41"/>
+      <c r="AF8" s="41"/>
+      <c r="AG8" s="41"/>
+      <c r="AH8" s="41"/>
+      <c r="AI8" s="41"/>
+      <c r="AJ8" s="41"/>
+      <c r="AK8" s="41"/>
+      <c r="AL8" s="41"/>
+    </row>
+    <row r="9" spans="1:41" s="4" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="41"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
       <c r="D9" s="8">
         <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
-      <c r="E9" s="38" t="s">
+      <c r="E9" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="29">
-        <f t="shared" ref="L9:L21" si="1">COUNTA(F9:K9)</f>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="57"/>
+      <c r="O9" s="57"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="29">
+        <f>COUNTA(F9:P9)</f>
         <v>0</v>
       </c>
-      <c r="M9" s="46"/>
-      <c r="N9" s="50"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="48"/>
-      <c r="Q9" s="49"/>
-      <c r="R9" s="49"/>
-      <c r="S9" s="49"/>
-      <c r="T9" s="49"/>
-      <c r="U9" s="49"/>
-      <c r="V9" s="49"/>
-      <c r="W9" s="49"/>
-      <c r="X9" s="49"/>
-      <c r="Y9" s="49"/>
-      <c r="Z9" s="49"/>
-      <c r="AA9" s="49"/>
-      <c r="AB9" s="49"/>
-      <c r="AC9" s="49"/>
-      <c r="AD9" s="49"/>
-      <c r="AE9" s="49"/>
-      <c r="AF9" s="49"/>
-      <c r="AG9" s="49"/>
-    </row>
-    <row r="10" spans="1:36" s="4" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="49"/>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
+      <c r="R9" s="38"/>
+      <c r="S9" s="42"/>
+      <c r="T9" s="34"/>
+      <c r="U9" s="40"/>
+      <c r="V9" s="41"/>
+      <c r="W9" s="41"/>
+      <c r="X9" s="41"/>
+      <c r="Y9" s="41"/>
+      <c r="Z9" s="41"/>
+      <c r="AA9" s="41"/>
+      <c r="AB9" s="41"/>
+      <c r="AC9" s="41"/>
+      <c r="AD9" s="41"/>
+      <c r="AE9" s="41"/>
+      <c r="AF9" s="41"/>
+      <c r="AG9" s="41"/>
+      <c r="AH9" s="41"/>
+      <c r="AI9" s="41"/>
+      <c r="AJ9" s="41"/>
+      <c r="AK9" s="41"/>
+      <c r="AL9" s="41"/>
+    </row>
+    <row r="10" spans="1:41" s="4" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="41"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
       <c r="D10" s="8">
         <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
-      <c r="E10" s="38" t="s">
+      <c r="E10" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="29">
-        <f t="shared" si="1"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="57"/>
+      <c r="N10" s="57"/>
+      <c r="O10" s="57"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="29">
+        <f>COUNTA(F10:P10)</f>
         <v>0</v>
       </c>
-      <c r="M10" s="46"/>
-      <c r="N10" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="O10" s="51" t="s">
+      <c r="R10" s="38"/>
+      <c r="S10" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="T10" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="P10" s="48"/>
-      <c r="Q10" s="49"/>
-      <c r="R10" s="49"/>
-      <c r="S10" s="49"/>
-      <c r="T10" s="49"/>
-      <c r="U10" s="49"/>
-      <c r="V10" s="49"/>
-      <c r="W10" s="49"/>
-      <c r="X10" s="49"/>
-      <c r="Y10" s="49"/>
-      <c r="Z10" s="49"/>
-      <c r="AA10" s="49"/>
-      <c r="AB10" s="49"/>
-      <c r="AC10" s="49"/>
-      <c r="AD10" s="49"/>
-      <c r="AE10" s="49"/>
-      <c r="AF10" s="49"/>
-      <c r="AG10" s="49"/>
-    </row>
-    <row r="11" spans="1:36" s="4" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="49"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
+      <c r="U10" s="40"/>
+      <c r="V10" s="41"/>
+      <c r="W10" s="41"/>
+      <c r="X10" s="41"/>
+      <c r="Y10" s="41"/>
+      <c r="Z10" s="41"/>
+      <c r="AA10" s="41"/>
+      <c r="AB10" s="41"/>
+      <c r="AC10" s="41"/>
+      <c r="AD10" s="41"/>
+      <c r="AE10" s="41"/>
+      <c r="AF10" s="41"/>
+      <c r="AG10" s="41"/>
+      <c r="AH10" s="41"/>
+      <c r="AI10" s="41"/>
+      <c r="AJ10" s="41"/>
+      <c r="AK10" s="41"/>
+      <c r="AL10" s="41"/>
+    </row>
+    <row r="11" spans="1:41" s="4" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="41"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
       <c r="D11" s="8">
         <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
-      <c r="E11" s="37" t="s">
+      <c r="E11" s="31" t="s">
         <v>23</v>
       </c>
       <c r="F11" s="10" t="s">
@@ -2010,91 +2088,105 @@
       <c r="H11" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
+      <c r="I11" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="K11" s="10"/>
-      <c r="L11" s="29">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="M11" s="46"/>
-      <c r="N11" s="52" t="s">
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="29">
+        <f>COUNTA(F11:P11)</f>
+        <v>5</v>
+      </c>
+      <c r="R11" s="38"/>
+      <c r="S11" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="O11" s="48"/>
-      <c r="P11" s="48"/>
-      <c r="Q11" s="49"/>
-      <c r="R11" s="49"/>
-      <c r="S11" s="49"/>
-      <c r="T11" s="49"/>
-      <c r="U11" s="49"/>
-      <c r="V11" s="49"/>
-      <c r="W11" s="49"/>
-      <c r="X11" s="49"/>
-      <c r="Y11" s="49"/>
-      <c r="Z11" s="49"/>
-      <c r="AA11" s="49"/>
-      <c r="AB11" s="49"/>
-      <c r="AC11" s="49"/>
-      <c r="AD11" s="49"/>
-      <c r="AE11" s="49"/>
-      <c r="AF11" s="49"/>
-      <c r="AG11" s="49"/>
-    </row>
-    <row r="12" spans="1:36" s="4" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="49"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
+      <c r="T11" s="40"/>
+      <c r="U11" s="40"/>
+      <c r="V11" s="41"/>
+      <c r="W11" s="41"/>
+      <c r="X11" s="41"/>
+      <c r="Y11" s="41"/>
+      <c r="Z11" s="41"/>
+      <c r="AA11" s="41"/>
+      <c r="AB11" s="41"/>
+      <c r="AC11" s="41"/>
+      <c r="AD11" s="41"/>
+      <c r="AE11" s="41"/>
+      <c r="AF11" s="41"/>
+      <c r="AG11" s="41"/>
+      <c r="AH11" s="41"/>
+      <c r="AI11" s="41"/>
+      <c r="AJ11" s="41"/>
+      <c r="AK11" s="41"/>
+      <c r="AL11" s="41"/>
+    </row>
+    <row r="12" spans="1:41" s="4" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="41"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
       <c r="D12" s="8">
         <f t="shared" ca="1" si="0"/>
         <v>5</v>
       </c>
-      <c r="E12" s="38" t="s">
+      <c r="E12" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="29">
-        <f t="shared" si="1"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="57"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="57"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="29">
+        <f>COUNTA(F12:P12)</f>
         <v>0</v>
       </c>
-      <c r="M12" s="46"/>
-      <c r="N12" s="45" t="s">
+      <c r="R12" s="38"/>
+      <c r="S12" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="O12" s="48"/>
-      <c r="P12" s="48"/>
-      <c r="Q12" s="49"/>
-      <c r="R12" s="49"/>
-      <c r="S12" s="49"/>
-      <c r="T12" s="49"/>
-      <c r="U12" s="49"/>
-      <c r="V12" s="49"/>
-      <c r="W12" s="49"/>
-      <c r="X12" s="49"/>
-      <c r="Y12" s="49"/>
-      <c r="Z12" s="49"/>
-      <c r="AA12" s="49"/>
-      <c r="AB12" s="49"/>
-      <c r="AC12" s="49"/>
-      <c r="AD12" s="49"/>
-      <c r="AE12" s="49"/>
-      <c r="AF12" s="49"/>
-      <c r="AG12" s="49"/>
-    </row>
-    <row r="13" spans="1:36" s="4" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="49"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="49"/>
+      <c r="T12" s="40"/>
+      <c r="U12" s="40"/>
+      <c r="V12" s="41"/>
+      <c r="W12" s="41"/>
+      <c r="X12" s="41"/>
+      <c r="Y12" s="41"/>
+      <c r="Z12" s="41"/>
+      <c r="AA12" s="41"/>
+      <c r="AB12" s="41"/>
+      <c r="AC12" s="41"/>
+      <c r="AD12" s="41"/>
+      <c r="AE12" s="41"/>
+      <c r="AF12" s="41"/>
+      <c r="AG12" s="41"/>
+      <c r="AH12" s="41"/>
+      <c r="AI12" s="41"/>
+      <c r="AJ12" s="41"/>
+      <c r="AK12" s="41"/>
+      <c r="AL12" s="41"/>
+    </row>
+    <row r="13" spans="1:41" s="4" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="41"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
       <c r="D13" s="8">
         <f t="shared" ca="1" si="0"/>
         <v>6</v>
       </c>
-      <c r="E13" s="38" t="s">
+      <c r="E13" s="32" t="s">
         <v>35</v>
       </c>
       <c r="F13" s="10" t="s">
@@ -2104,46 +2196,55 @@
       <c r="H13" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
+      <c r="I13" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="K13" s="10"/>
-      <c r="L13" s="29">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="M13" s="46"/>
-      <c r="N13" s="45" t="s">
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="29">
+        <f>COUNTA(F13:P13)</f>
+        <v>4</v>
+      </c>
+      <c r="R13" s="38"/>
+      <c r="S13" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="O13" s="48"/>
-      <c r="P13" s="48"/>
-      <c r="Q13" s="49"/>
-      <c r="R13" s="49"/>
-      <c r="S13" s="49"/>
-      <c r="T13" s="49"/>
-      <c r="U13" s="49"/>
-      <c r="V13" s="49"/>
-      <c r="W13" s="49"/>
-      <c r="X13" s="49"/>
-      <c r="Y13" s="49"/>
-      <c r="Z13" s="49"/>
-      <c r="AA13" s="49"/>
-      <c r="AB13" s="49"/>
-      <c r="AC13" s="49"/>
-      <c r="AD13" s="49"/>
-      <c r="AE13" s="49"/>
-      <c r="AF13" s="49"/>
-      <c r="AG13" s="49"/>
-    </row>
-    <row r="14" spans="1:36" s="4" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="49"/>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
+      <c r="T13" s="40"/>
+      <c r="U13" s="40"/>
+      <c r="V13" s="41"/>
+      <c r="W13" s="41"/>
+      <c r="X13" s="41"/>
+      <c r="Y13" s="41"/>
+      <c r="Z13" s="41"/>
+      <c r="AA13" s="41"/>
+      <c r="AB13" s="41"/>
+      <c r="AC13" s="41"/>
+      <c r="AD13" s="41"/>
+      <c r="AE13" s="41"/>
+      <c r="AF13" s="41"/>
+      <c r="AG13" s="41"/>
+      <c r="AH13" s="41"/>
+      <c r="AI13" s="41"/>
+      <c r="AJ13" s="41"/>
+      <c r="AK13" s="41"/>
+      <c r="AL13" s="41"/>
+    </row>
+    <row r="14" spans="1:41" s="4" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="41"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
       <c r="D14" s="8">
         <f t="shared" ca="1" si="0"/>
         <v>7</v>
       </c>
-      <c r="E14" s="38" t="s">
+      <c r="E14" s="32" t="s">
         <v>25</v>
       </c>
       <c r="F14" s="10" t="s">
@@ -2158,43 +2259,48 @@
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
-      <c r="L14" s="29">
-        <f t="shared" si="1"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="29">
+        <f>COUNTA(F14:P14)</f>
         <v>3</v>
       </c>
-      <c r="M14" s="46"/>
-      <c r="N14" s="45" t="s">
+      <c r="R14" s="38"/>
+      <c r="S14" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="O14" s="48"/>
-      <c r="P14" s="48"/>
-      <c r="Q14" s="49"/>
-      <c r="R14" s="49"/>
-      <c r="S14" s="49"/>
-      <c r="T14" s="49"/>
-      <c r="U14" s="49"/>
-      <c r="V14" s="49"/>
-      <c r="W14" s="49"/>
-      <c r="X14" s="49"/>
-      <c r="Y14" s="49"/>
-      <c r="Z14" s="49"/>
-      <c r="AA14" s="49"/>
-      <c r="AB14" s="49"/>
-      <c r="AC14" s="49"/>
-      <c r="AD14" s="49"/>
-      <c r="AE14" s="49"/>
-      <c r="AF14" s="49"/>
-      <c r="AG14" s="49"/>
-    </row>
-    <row r="15" spans="1:36" s="4" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="49"/>
-      <c r="B15" s="49"/>
-      <c r="C15" s="49"/>
+      <c r="T14" s="40"/>
+      <c r="U14" s="40"/>
+      <c r="V14" s="41"/>
+      <c r="W14" s="41"/>
+      <c r="X14" s="41"/>
+      <c r="Y14" s="41"/>
+      <c r="Z14" s="41"/>
+      <c r="AA14" s="41"/>
+      <c r="AB14" s="41"/>
+      <c r="AC14" s="41"/>
+      <c r="AD14" s="41"/>
+      <c r="AE14" s="41"/>
+      <c r="AF14" s="41"/>
+      <c r="AG14" s="41"/>
+      <c r="AH14" s="41"/>
+      <c r="AI14" s="41"/>
+      <c r="AJ14" s="41"/>
+      <c r="AK14" s="41"/>
+      <c r="AL14" s="41"/>
+    </row>
+    <row r="15" spans="1:41" s="4" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="41"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
       <c r="D15" s="8">
         <f t="shared" ca="1" si="0"/>
         <v>8</v>
       </c>
-      <c r="E15" s="38" t="s">
+      <c r="E15" s="32" t="s">
         <v>26</v>
       </c>
       <c r="F15" s="10" t="s">
@@ -2206,46 +2312,55 @@
       <c r="H15" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
+      <c r="I15" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="K15" s="10"/>
-      <c r="L15" s="29">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="M15" s="46"/>
-      <c r="N15" s="45" t="s">
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="29">
+        <f>COUNTA(F15:P15)</f>
+        <v>5</v>
+      </c>
+      <c r="R15" s="38"/>
+      <c r="S15" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="O15" s="48"/>
-      <c r="P15" s="48"/>
-      <c r="Q15" s="49"/>
-      <c r="R15" s="49"/>
-      <c r="S15" s="49"/>
-      <c r="T15" s="49"/>
-      <c r="U15" s="49"/>
-      <c r="V15" s="49"/>
-      <c r="W15" s="49"/>
-      <c r="X15" s="49"/>
-      <c r="Y15" s="49"/>
-      <c r="Z15" s="49"/>
-      <c r="AA15" s="49"/>
-      <c r="AB15" s="49"/>
-      <c r="AC15" s="49"/>
-      <c r="AD15" s="49"/>
-      <c r="AE15" s="49"/>
-      <c r="AF15" s="49"/>
-      <c r="AG15" s="49"/>
-    </row>
-    <row r="16" spans="1:36" s="4" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="49"/>
-      <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
+      <c r="T15" s="40"/>
+      <c r="U15" s="40"/>
+      <c r="V15" s="41"/>
+      <c r="W15" s="41"/>
+      <c r="X15" s="41"/>
+      <c r="Y15" s="41"/>
+      <c r="Z15" s="41"/>
+      <c r="AA15" s="41"/>
+      <c r="AB15" s="41"/>
+      <c r="AC15" s="41"/>
+      <c r="AD15" s="41"/>
+      <c r="AE15" s="41"/>
+      <c r="AF15" s="41"/>
+      <c r="AG15" s="41"/>
+      <c r="AH15" s="41"/>
+      <c r="AI15" s="41"/>
+      <c r="AJ15" s="41"/>
+      <c r="AK15" s="41"/>
+      <c r="AL15" s="41"/>
+    </row>
+    <row r="16" spans="1:41" s="4" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="41"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
       <c r="D16" s="8">
         <f t="shared" ca="1" si="0"/>
         <v>9</v>
       </c>
-      <c r="E16" s="38" t="s">
+      <c r="E16" s="32" t="s">
         <v>27</v>
       </c>
       <c r="F16" s="10" t="s">
@@ -2257,44 +2372,53 @@
       <c r="H16" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
+      <c r="I16" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="K16" s="10"/>
-      <c r="L16" s="29">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="M16" s="46"/>
-      <c r="N16" s="48"/>
-      <c r="O16" s="48"/>
-      <c r="P16" s="48"/>
-      <c r="Q16" s="49"/>
-      <c r="R16" s="49"/>
-      <c r="S16" s="49"/>
-      <c r="T16" s="49"/>
-      <c r="U16" s="49"/>
-      <c r="V16" s="49"/>
-      <c r="W16" s="49"/>
-      <c r="X16" s="49"/>
-      <c r="Y16" s="49"/>
-      <c r="Z16" s="49"/>
-      <c r="AA16" s="49"/>
-      <c r="AB16" s="49"/>
-      <c r="AC16" s="49"/>
-      <c r="AD16" s="49"/>
-      <c r="AE16" s="49"/>
-      <c r="AF16" s="49"/>
-      <c r="AG16" s="49"/>
-    </row>
-    <row r="17" spans="1:36" s="4" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="49"/>
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="29">
+        <f>COUNTA(F16:P16)</f>
+        <v>5</v>
+      </c>
+      <c r="R16" s="38"/>
+      <c r="S16" s="40"/>
+      <c r="T16" s="40"/>
+      <c r="U16" s="40"/>
+      <c r="V16" s="41"/>
+      <c r="W16" s="41"/>
+      <c r="X16" s="41"/>
+      <c r="Y16" s="41"/>
+      <c r="Z16" s="41"/>
+      <c r="AA16" s="41"/>
+      <c r="AB16" s="41"/>
+      <c r="AC16" s="41"/>
+      <c r="AD16" s="41"/>
+      <c r="AE16" s="41"/>
+      <c r="AF16" s="41"/>
+      <c r="AG16" s="41"/>
+      <c r="AH16" s="41"/>
+      <c r="AI16" s="41"/>
+      <c r="AJ16" s="41"/>
+      <c r="AK16" s="41"/>
+      <c r="AL16" s="41"/>
+    </row>
+    <row r="17" spans="1:41" s="4" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="41"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
       <c r="D17" s="8">
         <f t="shared" ca="1" si="0"/>
         <v>10</v>
       </c>
-      <c r="E17" s="38" t="s">
+      <c r="E17" s="32" t="s">
         <v>28</v>
       </c>
       <c r="F17" s="10" t="s">
@@ -2304,44 +2428,53 @@
       <c r="H17" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
+      <c r="I17" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="K17" s="10"/>
-      <c r="L17" s="29">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="M17" s="46"/>
-      <c r="N17" s="40"/>
-      <c r="O17" s="48"/>
-      <c r="P17" s="48"/>
-      <c r="Q17" s="49"/>
-      <c r="R17" s="49"/>
-      <c r="S17" s="49"/>
-      <c r="T17" s="49"/>
-      <c r="U17" s="49"/>
-      <c r="V17" s="49"/>
-      <c r="W17" s="49"/>
-      <c r="X17" s="49"/>
-      <c r="Y17" s="49"/>
-      <c r="Z17" s="49"/>
-      <c r="AA17" s="49"/>
-      <c r="AB17" s="49"/>
-      <c r="AC17" s="49"/>
-      <c r="AD17" s="49"/>
-      <c r="AE17" s="49"/>
-      <c r="AF17" s="49"/>
-      <c r="AG17" s="49"/>
-    </row>
-    <row r="18" spans="1:36" s="4" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="49"/>
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="29">
+        <f>COUNTA(F17:P17)</f>
+        <v>4</v>
+      </c>
+      <c r="R17" s="38"/>
+      <c r="S17" s="34"/>
+      <c r="T17" s="40"/>
+      <c r="U17" s="40"/>
+      <c r="V17" s="41"/>
+      <c r="W17" s="41"/>
+      <c r="X17" s="41"/>
+      <c r="Y17" s="41"/>
+      <c r="Z17" s="41"/>
+      <c r="AA17" s="41"/>
+      <c r="AB17" s="41"/>
+      <c r="AC17" s="41"/>
+      <c r="AD17" s="41"/>
+      <c r="AE17" s="41"/>
+      <c r="AF17" s="41"/>
+      <c r="AG17" s="41"/>
+      <c r="AH17" s="41"/>
+      <c r="AI17" s="41"/>
+      <c r="AJ17" s="41"/>
+      <c r="AK17" s="41"/>
+      <c r="AL17" s="41"/>
+    </row>
+    <row r="18" spans="1:41" s="4" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="41"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
       <c r="D18" s="8">
         <f t="shared" ca="1" si="0"/>
         <v>11</v>
       </c>
-      <c r="E18" s="38" t="s">
+      <c r="E18" s="32" t="s">
         <v>29</v>
       </c>
       <c r="F18" s="10" t="s">
@@ -2351,463 +2484,538 @@
         <v>32</v>
       </c>
       <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
+      <c r="I18" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="K18" s="10"/>
-      <c r="L18" s="29">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="M18" s="46"/>
-      <c r="N18" s="40"/>
-      <c r="O18" s="48"/>
-      <c r="P18" s="48"/>
-      <c r="Q18" s="49"/>
-      <c r="R18" s="49"/>
-      <c r="S18" s="49"/>
-      <c r="T18" s="49"/>
-      <c r="U18" s="49"/>
-      <c r="V18" s="49"/>
-      <c r="W18" s="49"/>
-      <c r="X18" s="49"/>
-      <c r="Y18" s="49"/>
-      <c r="Z18" s="49"/>
-      <c r="AA18" s="49"/>
-      <c r="AB18" s="49"/>
-      <c r="AC18" s="49"/>
-      <c r="AD18" s="49"/>
-      <c r="AE18" s="49"/>
-      <c r="AF18" s="49"/>
-      <c r="AG18" s="49"/>
-    </row>
-    <row r="19" spans="1:36" s="4" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="49"/>
-      <c r="B19" s="49"/>
-      <c r="C19" s="49"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="29">
+        <f>COUNTA(F18:P18)</f>
+        <v>4</v>
+      </c>
+      <c r="R18" s="38"/>
+      <c r="S18" s="34"/>
+      <c r="T18" s="40"/>
+      <c r="U18" s="40"/>
+      <c r="V18" s="41"/>
+      <c r="W18" s="41"/>
+      <c r="X18" s="41"/>
+      <c r="Y18" s="41"/>
+      <c r="Z18" s="41"/>
+      <c r="AA18" s="41"/>
+      <c r="AB18" s="41"/>
+      <c r="AC18" s="41"/>
+      <c r="AD18" s="41"/>
+      <c r="AE18" s="41"/>
+      <c r="AF18" s="41"/>
+      <c r="AG18" s="41"/>
+      <c r="AH18" s="41"/>
+      <c r="AI18" s="41"/>
+      <c r="AJ18" s="41"/>
+      <c r="AK18" s="41"/>
+      <c r="AL18" s="41"/>
+    </row>
+    <row r="19" spans="1:41" s="4" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="41"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
       <c r="D19" s="8">
         <f t="shared" ca="1" si="0"/>
         <v>12</v>
       </c>
-      <c r="E19" s="38" t="s">
+      <c r="E19" s="32" t="s">
         <v>30</v>
       </c>
       <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
+      <c r="G19" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="H19" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
+      <c r="I19" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="K19" s="10"/>
-      <c r="L19" s="29">
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="29">
+        <f>COUNTA(F19:P19)</f>
+        <v>4</v>
+      </c>
+      <c r="R19" s="38"/>
+      <c r="S19" s="34"/>
+      <c r="T19" s="40"/>
+      <c r="U19" s="40"/>
+      <c r="V19" s="41"/>
+      <c r="W19" s="41"/>
+      <c r="X19" s="41"/>
+      <c r="Y19" s="41"/>
+      <c r="Z19" s="41"/>
+      <c r="AA19" s="41"/>
+      <c r="AB19" s="41"/>
+      <c r="AC19" s="41"/>
+      <c r="AD19" s="41"/>
+      <c r="AE19" s="41"/>
+      <c r="AF19" s="41"/>
+      <c r="AG19" s="41"/>
+      <c r="AH19" s="41"/>
+      <c r="AI19" s="41"/>
+      <c r="AJ19" s="41"/>
+      <c r="AK19" s="41"/>
+      <c r="AL19" s="41"/>
+    </row>
+    <row r="20" spans="1:41" s="4" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="41"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="46">
+        <v>13</v>
+      </c>
+      <c r="E20" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="57"/>
+      <c r="M20" s="57"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="57"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="29">
+        <f>COUNTA(F20:P20)</f>
+        <v>0</v>
+      </c>
+      <c r="R20" s="38"/>
+      <c r="S20" s="34"/>
+      <c r="T20" s="40"/>
+      <c r="U20" s="40"/>
+      <c r="V20" s="41"/>
+      <c r="W20" s="41"/>
+      <c r="X20" s="41"/>
+      <c r="Y20" s="41"/>
+      <c r="Z20" s="41"/>
+      <c r="AA20" s="41"/>
+      <c r="AB20" s="41"/>
+      <c r="AC20" s="41"/>
+      <c r="AD20" s="41"/>
+      <c r="AE20" s="41"/>
+      <c r="AF20" s="41"/>
+      <c r="AG20" s="41"/>
+      <c r="AH20" s="41"/>
+      <c r="AI20" s="41"/>
+      <c r="AJ20" s="41"/>
+      <c r="AK20" s="41"/>
+      <c r="AL20" s="41"/>
+    </row>
+    <row r="21" spans="1:41" s="4" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="41"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="48">
+        <f t="shared" ca="1" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="E21" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="57"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="57"/>
+      <c r="L21" s="57"/>
+      <c r="M21" s="57"/>
+      <c r="N21" s="57"/>
+      <c r="O21" s="57"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="29">
+        <f>COUNTA(F21:P21)</f>
+        <v>0</v>
+      </c>
+      <c r="R21" s="38"/>
+      <c r="S21" s="34"/>
+      <c r="T21" s="40"/>
+      <c r="U21" s="40"/>
+      <c r="V21" s="41"/>
+      <c r="W21" s="41"/>
+      <c r="X21" s="41"/>
+      <c r="Y21" s="41"/>
+      <c r="Z21" s="41"/>
+      <c r="AA21" s="41"/>
+      <c r="AB21" s="41"/>
+      <c r="AC21" s="41"/>
+      <c r="AD21" s="41"/>
+      <c r="AE21" s="41"/>
+      <c r="AF21" s="41"/>
+      <c r="AG21" s="41"/>
+      <c r="AH21" s="41"/>
+      <c r="AI21" s="41"/>
+      <c r="AJ21" s="41"/>
+      <c r="AK21" s="41"/>
+      <c r="AL21" s="41"/>
+    </row>
+    <row r="22" spans="1:41" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A22" s="41"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" s="30">
+        <f t="shared" ref="F22:P22" si="1">COUNTA(F8:F21)</f>
+        <v>7</v>
+      </c>
+      <c r="G22" s="30">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="M19" s="46"/>
-      <c r="N19" s="40"/>
-      <c r="O19" s="48"/>
-      <c r="P19" s="48"/>
-      <c r="Q19" s="49"/>
-      <c r="R19" s="49"/>
-      <c r="S19" s="49"/>
-      <c r="T19" s="49"/>
-      <c r="U19" s="49"/>
-      <c r="V19" s="49"/>
-      <c r="W19" s="49"/>
-      <c r="X19" s="49"/>
-      <c r="Y19" s="49"/>
-      <c r="Z19" s="49"/>
-      <c r="AA19" s="49"/>
-      <c r="AB19" s="49"/>
-      <c r="AC19" s="49"/>
-      <c r="AD19" s="49"/>
-      <c r="AE19" s="49"/>
-      <c r="AF19" s="49"/>
-      <c r="AG19" s="49"/>
-    </row>
-    <row r="20" spans="1:36" s="4" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="49"/>
-      <c r="B20" s="49"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="54">
-        <v>13</v>
-      </c>
-      <c r="E20" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="29">
+        <v>7</v>
+      </c>
+      <c r="H22" s="30">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="I22" s="30">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="J22" s="30">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="K22" s="30"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="30"/>
+      <c r="P22" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M20" s="46"/>
-      <c r="N20" s="40"/>
-      <c r="O20" s="48"/>
-      <c r="P20" s="48"/>
-      <c r="Q20" s="49"/>
-      <c r="R20" s="49"/>
-      <c r="S20" s="49"/>
-      <c r="T20" s="49"/>
-      <c r="U20" s="49"/>
-      <c r="V20" s="49"/>
-      <c r="W20" s="49"/>
-      <c r="X20" s="49"/>
-      <c r="Y20" s="49"/>
-      <c r="Z20" s="49"/>
-      <c r="AA20" s="49"/>
-      <c r="AB20" s="49"/>
-      <c r="AC20" s="49"/>
-      <c r="AD20" s="49"/>
-      <c r="AE20" s="49"/>
-      <c r="AF20" s="49"/>
-      <c r="AG20" s="49"/>
-    </row>
-    <row r="21" spans="1:36" s="4" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="49"/>
-      <c r="B21" s="49"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="57">
-        <f t="shared" ca="1" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="E21" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M21" s="46"/>
-      <c r="N21" s="40"/>
-      <c r="O21" s="48"/>
-      <c r="P21" s="48"/>
-      <c r="Q21" s="49"/>
-      <c r="R21" s="49"/>
-      <c r="S21" s="49"/>
-      <c r="T21" s="49"/>
-      <c r="U21" s="49"/>
-      <c r="V21" s="49"/>
-      <c r="W21" s="49"/>
-      <c r="X21" s="49"/>
-      <c r="Y21" s="49"/>
-      <c r="Z21" s="49"/>
-      <c r="AA21" s="49"/>
-      <c r="AB21" s="49"/>
-      <c r="AC21" s="49"/>
-      <c r="AD21" s="49"/>
-      <c r="AE21" s="49"/>
-      <c r="AF21" s="49"/>
-      <c r="AG21" s="49"/>
-    </row>
-    <row r="22" spans="1:36" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A22" s="49"/>
-      <c r="B22" s="49"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="F22" s="30">
-        <f t="shared" ref="F22:K22" si="2">COUNTA(F8:F21)</f>
-        <v>7</v>
-      </c>
-      <c r="G22" s="30">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="H22" s="30">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="I22" s="30">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J22" s="30">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K22" s="30">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L22" s="53"/>
-      <c r="M22" s="46"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="48"/>
-      <c r="P22" s="48"/>
-      <c r="Q22" s="49"/>
-      <c r="R22" s="49"/>
-      <c r="S22" s="49"/>
-      <c r="T22" s="49"/>
-      <c r="U22" s="49"/>
-      <c r="V22" s="49"/>
-      <c r="W22" s="49"/>
-      <c r="X22" s="49"/>
-      <c r="Y22" s="49"/>
-      <c r="Z22" s="49"/>
-      <c r="AA22" s="49"/>
-      <c r="AB22" s="49"/>
-      <c r="AC22" s="49"/>
-      <c r="AD22" s="49"/>
-      <c r="AE22" s="49"/>
-      <c r="AF22" s="49"/>
-      <c r="AG22" s="49"/>
-    </row>
-    <row r="23" spans="1:36" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="49"/>
-      <c r="B23" s="49"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="39"/>
-      <c r="L23" s="39"/>
-      <c r="M23" s="39"/>
-      <c r="N23" s="39"/>
-      <c r="O23" s="39"/>
-      <c r="P23" s="39"/>
-      <c r="Q23" s="39"/>
-      <c r="R23" s="39"/>
-      <c r="S23" s="39"/>
-      <c r="T23" s="39"/>
-      <c r="U23" s="39"/>
-      <c r="V23" s="39"/>
-      <c r="W23" s="39"/>
-      <c r="X23" s="39"/>
-      <c r="Y23" s="39"/>
-      <c r="Z23" s="39"/>
-      <c r="AA23" s="39"/>
-      <c r="AB23" s="39"/>
-      <c r="AC23" s="39"/>
-      <c r="AD23" s="39"/>
-      <c r="AE23" s="39"/>
-      <c r="AF23" s="39"/>
-      <c r="AG23" s="46"/>
-      <c r="AH23" s="3"/>
-      <c r="AI23" s="6"/>
-      <c r="AJ23" s="6"/>
-    </row>
-    <row r="24" spans="1:36" s="4" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="49"/>
-      <c r="B24" s="49"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="39"/>
-      <c r="M24" s="39"/>
-      <c r="N24" s="39"/>
-      <c r="O24" s="39"/>
-      <c r="P24" s="39"/>
-      <c r="Q24" s="39"/>
-      <c r="R24" s="39"/>
-      <c r="S24" s="39"/>
-      <c r="T24" s="39"/>
-      <c r="U24" s="39"/>
-      <c r="V24" s="39"/>
-      <c r="W24" s="39"/>
-      <c r="X24" s="39"/>
-      <c r="Y24" s="39"/>
-      <c r="Z24" s="39"/>
-      <c r="AA24" s="39"/>
-      <c r="AB24" s="39"/>
-      <c r="AC24" s="39"/>
-      <c r="AD24" s="39"/>
-      <c r="AE24" s="39"/>
-      <c r="AF24" s="39"/>
-      <c r="AG24" s="48"/>
-      <c r="AH24" s="3"/>
-      <c r="AI24" s="6"/>
-      <c r="AJ24" s="6"/>
-    </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A25" s="39"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="39"/>
-      <c r="K25" s="39"/>
-      <c r="L25" s="39"/>
-      <c r="M25" s="39"/>
-      <c r="N25" s="39"/>
-      <c r="O25" s="39"/>
-      <c r="P25" s="39"/>
-      <c r="Q25" s="39"/>
-      <c r="R25" s="39"/>
-      <c r="S25" s="39"/>
-      <c r="T25" s="39"/>
-      <c r="U25" s="39"/>
-      <c r="V25" s="39"/>
-      <c r="W25" s="39"/>
-      <c r="X25" s="39"/>
-      <c r="Y25" s="39"/>
-      <c r="Z25" s="39"/>
-      <c r="AA25" s="39"/>
-      <c r="AB25" s="39"/>
-      <c r="AC25" s="39"/>
-      <c r="AD25" s="39"/>
-      <c r="AE25" s="39"/>
-      <c r="AF25" s="39"/>
-      <c r="AG25" s="40"/>
-    </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A26" s="39"/>
-      <c r="B26" s="39"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="39"/>
-      <c r="L26" s="39"/>
-      <c r="M26" s="39"/>
-      <c r="N26" s="39"/>
-      <c r="O26" s="39"/>
-      <c r="P26" s="39"/>
-      <c r="Q26" s="39"/>
-      <c r="R26" s="39"/>
-      <c r="S26" s="39"/>
-      <c r="T26" s="39"/>
-      <c r="U26" s="39"/>
-      <c r="V26" s="39"/>
-      <c r="W26" s="39"/>
-      <c r="X26" s="39"/>
-      <c r="Y26" s="39"/>
-      <c r="Z26" s="39"/>
-      <c r="AA26" s="39"/>
-      <c r="AB26" s="39"/>
-      <c r="AC26" s="39"/>
-      <c r="AD26" s="39"/>
-      <c r="AE26" s="39"/>
-      <c r="AF26" s="39"/>
-      <c r="AG26" s="40"/>
-    </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A27" s="39"/>
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="39"/>
-      <c r="K27" s="39"/>
-      <c r="L27" s="39"/>
-      <c r="M27" s="39"/>
-      <c r="N27" s="39"/>
-      <c r="O27" s="39"/>
-      <c r="P27" s="39"/>
-      <c r="Q27" s="39"/>
-      <c r="R27" s="39"/>
-      <c r="S27" s="39"/>
-      <c r="T27" s="39"/>
-      <c r="U27" s="39"/>
-      <c r="V27" s="39"/>
-      <c r="W27" s="39"/>
-      <c r="X27" s="39"/>
-      <c r="Y27" s="39"/>
-      <c r="Z27" s="39"/>
-      <c r="AA27" s="39"/>
-      <c r="AB27" s="39"/>
-      <c r="AC27" s="39"/>
-      <c r="AD27" s="39"/>
-      <c r="AE27" s="39"/>
-      <c r="AF27" s="39"/>
-      <c r="AG27" s="40"/>
-    </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A28" s="39"/>
-      <c r="B28" s="39"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="39"/>
-      <c r="K28" s="39"/>
-      <c r="L28" s="39"/>
-    </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A29" s="39"/>
-      <c r="B29" s="39"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="39"/>
-      <c r="K29" s="39"/>
-      <c r="L29" s="39"/>
-    </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A30" s="39"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="39"/>
-      <c r="K30" s="39"/>
-      <c r="L30" s="39"/>
+      <c r="Q22" s="45"/>
+      <c r="R22" s="38"/>
+      <c r="S22" s="34"/>
+      <c r="T22" s="40"/>
+      <c r="U22" s="40"/>
+      <c r="V22" s="41"/>
+      <c r="W22" s="41"/>
+      <c r="X22" s="41"/>
+      <c r="Y22" s="41"/>
+      <c r="Z22" s="41"/>
+      <c r="AA22" s="41"/>
+      <c r="AB22" s="41"/>
+      <c r="AC22" s="41"/>
+      <c r="AD22" s="41"/>
+      <c r="AE22" s="41"/>
+      <c r="AF22" s="41"/>
+      <c r="AG22" s="41"/>
+      <c r="AH22" s="41"/>
+      <c r="AI22" s="41"/>
+      <c r="AJ22" s="41"/>
+      <c r="AK22" s="41"/>
+      <c r="AL22" s="41"/>
+    </row>
+    <row r="23" spans="1:41" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="41"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="33"/>
+      <c r="P23" s="33"/>
+      <c r="Q23" s="33"/>
+      <c r="R23" s="33"/>
+      <c r="S23" s="33"/>
+      <c r="T23" s="33"/>
+      <c r="U23" s="33"/>
+      <c r="V23" s="33"/>
+      <c r="W23" s="33"/>
+      <c r="X23" s="33"/>
+      <c r="Y23" s="33"/>
+      <c r="Z23" s="33"/>
+      <c r="AA23" s="33"/>
+      <c r="AB23" s="33"/>
+      <c r="AC23" s="33"/>
+      <c r="AD23" s="33"/>
+      <c r="AE23" s="33"/>
+      <c r="AF23" s="33"/>
+      <c r="AG23" s="33"/>
+      <c r="AH23" s="33"/>
+      <c r="AI23" s="33"/>
+      <c r="AJ23" s="33"/>
+      <c r="AK23" s="33"/>
+      <c r="AL23" s="38"/>
+      <c r="AM23" s="3"/>
+      <c r="AN23" s="6"/>
+      <c r="AO23" s="6"/>
+    </row>
+    <row r="24" spans="1:41" s="4" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="41"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="33"/>
+      <c r="P24" s="33"/>
+      <c r="Q24" s="33"/>
+      <c r="R24" s="33"/>
+      <c r="S24" s="33"/>
+      <c r="T24" s="33"/>
+      <c r="U24" s="33"/>
+      <c r="V24" s="33"/>
+      <c r="W24" s="33"/>
+      <c r="X24" s="33"/>
+      <c r="Y24" s="33"/>
+      <c r="Z24" s="33"/>
+      <c r="AA24" s="33"/>
+      <c r="AB24" s="33"/>
+      <c r="AC24" s="33"/>
+      <c r="AD24" s="33"/>
+      <c r="AE24" s="33"/>
+      <c r="AF24" s="33"/>
+      <c r="AG24" s="33"/>
+      <c r="AH24" s="33"/>
+      <c r="AI24" s="33"/>
+      <c r="AJ24" s="33"/>
+      <c r="AK24" s="33"/>
+      <c r="AL24" s="40"/>
+      <c r="AM24" s="3"/>
+      <c r="AN24" s="6"/>
+      <c r="AO24" s="6"/>
+    </row>
+    <row r="25" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A25" s="33"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="33"/>
+      <c r="P25" s="33"/>
+      <c r="Q25" s="33"/>
+      <c r="R25" s="33"/>
+      <c r="S25" s="33"/>
+      <c r="T25" s="33"/>
+      <c r="U25" s="33"/>
+      <c r="V25" s="33"/>
+      <c r="W25" s="33"/>
+      <c r="X25" s="33"/>
+      <c r="Y25" s="33"/>
+      <c r="Z25" s="33"/>
+      <c r="AA25" s="33"/>
+      <c r="AB25" s="33"/>
+      <c r="AC25" s="33"/>
+      <c r="AD25" s="33"/>
+      <c r="AE25" s="33"/>
+      <c r="AF25" s="33"/>
+      <c r="AG25" s="33"/>
+      <c r="AH25" s="33"/>
+      <c r="AI25" s="33"/>
+      <c r="AJ25" s="33"/>
+      <c r="AK25" s="33"/>
+      <c r="AL25" s="34"/>
+    </row>
+    <row r="26" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A26" s="33"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="33"/>
+      <c r="N26" s="33"/>
+      <c r="O26" s="33"/>
+      <c r="P26" s="33"/>
+      <c r="Q26" s="33"/>
+      <c r="R26" s="33"/>
+      <c r="S26" s="33"/>
+      <c r="T26" s="33"/>
+      <c r="U26" s="33"/>
+      <c r="V26" s="33"/>
+      <c r="W26" s="33"/>
+      <c r="X26" s="33"/>
+      <c r="Y26" s="33"/>
+      <c r="Z26" s="33"/>
+      <c r="AA26" s="33"/>
+      <c r="AB26" s="33"/>
+      <c r="AC26" s="33"/>
+      <c r="AD26" s="33"/>
+      <c r="AE26" s="33"/>
+      <c r="AF26" s="33"/>
+      <c r="AG26" s="33"/>
+      <c r="AH26" s="33"/>
+      <c r="AI26" s="33"/>
+      <c r="AJ26" s="33"/>
+      <c r="AK26" s="33"/>
+      <c r="AL26" s="34"/>
+    </row>
+    <row r="27" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A27" s="33"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="33"/>
+      <c r="P27" s="33"/>
+      <c r="Q27" s="33"/>
+      <c r="R27" s="33"/>
+      <c r="S27" s="33"/>
+      <c r="T27" s="33"/>
+      <c r="U27" s="33"/>
+      <c r="V27" s="33"/>
+      <c r="W27" s="33"/>
+      <c r="X27" s="33"/>
+      <c r="Y27" s="33"/>
+      <c r="Z27" s="33"/>
+      <c r="AA27" s="33"/>
+      <c r="AB27" s="33"/>
+      <c r="AC27" s="33"/>
+      <c r="AD27" s="33"/>
+      <c r="AE27" s="33"/>
+      <c r="AF27" s="33"/>
+      <c r="AG27" s="33"/>
+      <c r="AH27" s="33"/>
+      <c r="AI27" s="33"/>
+      <c r="AJ27" s="33"/>
+      <c r="AK27" s="33"/>
+      <c r="AL27" s="34"/>
+    </row>
+    <row r="28" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A28" s="33"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="33"/>
+      <c r="L28" s="33"/>
+      <c r="M28" s="33"/>
+      <c r="N28" s="33"/>
+      <c r="O28" s="33"/>
+      <c r="P28" s="33"/>
+      <c r="Q28" s="33"/>
+    </row>
+    <row r="29" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A29" s="33"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="33"/>
+      <c r="L29" s="33"/>
+      <c r="M29" s="33"/>
+      <c r="N29" s="33"/>
+      <c r="O29" s="33"/>
+      <c r="P29" s="33"/>
+      <c r="Q29" s="33"/>
+    </row>
+    <row r="30" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A30" s="33"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="33"/>
+      <c r="M30" s="33"/>
+      <c r="N30" s="33"/>
+      <c r="O30" s="33"/>
+      <c r="P30" s="33"/>
+      <c r="Q30" s="33"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="4">
     <mergeCell ref="D6:E7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="D2:AF2"/>
-    <mergeCell ref="D4:AF4"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="D2:AK2"/>
+    <mergeCell ref="D4:AK4"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N10" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S10" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"x,✓,✔,★,☆,❤,♪,♫,⚜,☘,☀,⚽,⚾,🏈,🏀,🚲"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="F6:K6" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" sqref="F6:P6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Jan,Feb,Mar,Apr,May,Jun,Jul,Aug,Sep,Oct,Nov,Dec"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="F7:K7" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" sqref="F7:P7" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8:K21" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8:P21" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>checkbox</formula1>
     </dataValidation>
   </dataValidations>

--- a/Attendance JS after Eid.xlsx
+++ b/Attendance JS after Eid.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WEB Community\JavaScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1BD122A-EFE3-474F-86E5-70CA5C3DE235}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13788F42-A66F-48BC-91A6-5E684BF298E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="1725" windowWidth="15375" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Attendance" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="39">
   <si>
     <t>NAME</t>
   </si>
@@ -1032,6 +1032,15 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="27" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="27" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="42" fillId="20" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1055,15 +1064,6 @@
     </xf>
     <xf numFmtId="0" fontId="41" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="27" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="27" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="27" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -1539,8 +1539,8 @@
   </sheetPr>
   <dimension ref="A1:AO30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AL14" sqref="AL14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1623,42 +1623,42 @@
       <c r="A2" s="33"/>
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
-      <c r="D2" s="55" t="s">
+      <c r="D2" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="55"/>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="55"/>
-      <c r="V2" s="55"/>
-      <c r="W2" s="55"/>
-      <c r="X2" s="55"/>
-      <c r="Y2" s="55"/>
-      <c r="Z2" s="55"/>
-      <c r="AA2" s="55"/>
-      <c r="AB2" s="55"/>
-      <c r="AC2" s="55"/>
-      <c r="AD2" s="55"/>
-      <c r="AE2" s="55"/>
-      <c r="AF2" s="55"/>
-      <c r="AG2" s="55"/>
-      <c r="AH2" s="55"/>
-      <c r="AI2" s="55"/>
-      <c r="AJ2" s="55"/>
-      <c r="AK2" s="55"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="58"/>
+      <c r="U2" s="58"/>
+      <c r="V2" s="58"/>
+      <c r="W2" s="58"/>
+      <c r="X2" s="58"/>
+      <c r="Y2" s="58"/>
+      <c r="Z2" s="58"/>
+      <c r="AA2" s="58"/>
+      <c r="AB2" s="58"/>
+      <c r="AC2" s="58"/>
+      <c r="AD2" s="58"/>
+      <c r="AE2" s="58"/>
+      <c r="AF2" s="58"/>
+      <c r="AG2" s="58"/>
+      <c r="AH2" s="58"/>
+      <c r="AI2" s="58"/>
+      <c r="AJ2" s="58"/>
+      <c r="AK2" s="58"/>
       <c r="AL2" s="34"/>
       <c r="AM2" s="5"/>
       <c r="AN2" s="5"/>
@@ -1709,42 +1709,42 @@
       <c r="A4" s="33"/>
       <c r="B4" s="33"/>
       <c r="C4" s="33"/>
-      <c r="D4" s="56" t="s">
+      <c r="D4" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
-      <c r="P4" s="56"/>
-      <c r="Q4" s="56"/>
-      <c r="R4" s="56"/>
-      <c r="S4" s="56"/>
-      <c r="T4" s="56"/>
-      <c r="U4" s="56"/>
-      <c r="V4" s="56"/>
-      <c r="W4" s="56"/>
-      <c r="X4" s="56"/>
-      <c r="Y4" s="56"/>
-      <c r="Z4" s="56"/>
-      <c r="AA4" s="56"/>
-      <c r="AB4" s="56"/>
-      <c r="AC4" s="56"/>
-      <c r="AD4" s="56"/>
-      <c r="AE4" s="56"/>
-      <c r="AF4" s="56"/>
-      <c r="AG4" s="56"/>
-      <c r="AH4" s="56"/>
-      <c r="AI4" s="56"/>
-      <c r="AJ4" s="56"/>
-      <c r="AK4" s="56"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="59"/>
+      <c r="P4" s="59"/>
+      <c r="Q4" s="59"/>
+      <c r="R4" s="59"/>
+      <c r="S4" s="59"/>
+      <c r="T4" s="59"/>
+      <c r="U4" s="59"/>
+      <c r="V4" s="59"/>
+      <c r="W4" s="59"/>
+      <c r="X4" s="59"/>
+      <c r="Y4" s="59"/>
+      <c r="Z4" s="59"/>
+      <c r="AA4" s="59"/>
+      <c r="AB4" s="59"/>
+      <c r="AC4" s="59"/>
+      <c r="AD4" s="59"/>
+      <c r="AE4" s="59"/>
+      <c r="AF4" s="59"/>
+      <c r="AG4" s="59"/>
+      <c r="AH4" s="59"/>
+      <c r="AI4" s="59"/>
+      <c r="AJ4" s="59"/>
+      <c r="AK4" s="59"/>
       <c r="AL4" s="34"/>
       <c r="AM4" s="11"/>
     </row>
@@ -1792,10 +1792,10 @@
       <c r="A6" s="33"/>
       <c r="B6" s="33"/>
       <c r="C6" s="33"/>
-      <c r="D6" s="49" t="s">
+      <c r="D6" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="50"/>
+      <c r="E6" s="53"/>
       <c r="F6" s="27" t="s">
         <v>37</v>
       </c>
@@ -1829,7 +1829,7 @@
       <c r="P6" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="Q6" s="53" t="s">
+      <c r="Q6" s="56" t="s">
         <v>38</v>
       </c>
       <c r="R6" s="34"/>
@@ -1863,8 +1863,8 @@
       <c r="A7" s="33"/>
       <c r="B7" s="33"/>
       <c r="C7" s="33"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="52"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="55"/>
       <c r="F7" s="9">
         <v>25</v>
       </c>
@@ -1880,13 +1880,15 @@
       <c r="J7" s="9">
         <v>29</v>
       </c>
-      <c r="K7" s="9"/>
+      <c r="K7" s="9">
+        <v>30</v>
+      </c>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
       <c r="O7" s="9"/>
       <c r="P7" s="9"/>
-      <c r="Q7" s="54"/>
+      <c r="Q7" s="57"/>
       <c r="R7" s="34"/>
       <c r="S7" s="34"/>
       <c r="T7" s="34"/>
@@ -1934,15 +1936,17 @@
       <c r="J8" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="K8" s="10"/>
+      <c r="K8" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
       <c r="O8" s="10"/>
       <c r="P8" s="10"/>
       <c r="Q8" s="29">
-        <f>COUNTA(F8:P8)</f>
-        <v>3</v>
+        <f t="shared" ref="Q8:Q21" si="1">COUNTA(F8:P8)</f>
+        <v>4</v>
       </c>
       <c r="R8" s="38"/>
       <c r="S8" s="39" t="s">
@@ -1976,22 +1980,22 @@
         <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
-      <c r="E9" s="58" t="s">
+      <c r="E9" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="57"/>
-      <c r="K9" s="57"/>
-      <c r="L9" s="57"/>
-      <c r="M9" s="57"/>
-      <c r="N9" s="57"/>
-      <c r="O9" s="57"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="49"/>
       <c r="P9" s="10"/>
       <c r="Q9" s="29">
-        <f>COUNTA(F9:P9)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R9" s="38"/>
@@ -2024,22 +2028,22 @@
         <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
-      <c r="E10" s="58" t="s">
+      <c r="E10" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="57"/>
-      <c r="L10" s="57"/>
-      <c r="M10" s="57"/>
-      <c r="N10" s="57"/>
-      <c r="O10" s="57"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="49"/>
+      <c r="O10" s="49"/>
       <c r="P10" s="10"/>
       <c r="Q10" s="29">
-        <f>COUNTA(F10:P10)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R10" s="38"/>
@@ -2101,7 +2105,7 @@
       <c r="O11" s="10"/>
       <c r="P11" s="10"/>
       <c r="Q11" s="29">
-        <f>COUNTA(F11:P11)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="R11" s="38"/>
@@ -2139,19 +2143,19 @@
       <c r="E12" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="57"/>
-      <c r="M12" s="57"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="57"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="49"/>
+      <c r="O12" s="49"/>
       <c r="P12" s="10"/>
       <c r="Q12" s="29">
-        <f>COUNTA(F12:P12)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R12" s="38"/>
@@ -2202,15 +2206,17 @@
       <c r="J13" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="K13" s="10"/>
+      <c r="K13" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
       <c r="N13" s="10"/>
       <c r="O13" s="10"/>
       <c r="P13" s="10"/>
       <c r="Q13" s="29">
-        <f>COUNTA(F13:P13)</f>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
       <c r="R13" s="38"/>
       <c r="S13" s="37" t="s">
@@ -2258,15 +2264,17 @@
       </c>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
+      <c r="K14" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
       <c r="N14" s="10"/>
       <c r="O14" s="10"/>
       <c r="P14" s="10"/>
       <c r="Q14" s="29">
-        <f>COUNTA(F14:P14)</f>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="R14" s="38"/>
       <c r="S14" s="37" t="s">
@@ -2325,7 +2333,7 @@
       <c r="O15" s="10"/>
       <c r="P15" s="10"/>
       <c r="Q15" s="29">
-        <f>COUNTA(F15:P15)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="R15" s="38"/>
@@ -2378,15 +2386,17 @@
       <c r="J16" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="K16" s="10"/>
+      <c r="K16" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="L16" s="10"/>
       <c r="M16" s="10"/>
       <c r="N16" s="10"/>
       <c r="O16" s="10"/>
       <c r="P16" s="10"/>
       <c r="Q16" s="29">
-        <f>COUNTA(F16:P16)</f>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="R16" s="38"/>
       <c r="S16" s="40"/>
@@ -2434,15 +2444,17 @@
       <c r="J17" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="K17" s="10"/>
+      <c r="K17" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="L17" s="10"/>
       <c r="M17" s="10"/>
       <c r="N17" s="10"/>
       <c r="O17" s="10"/>
       <c r="P17" s="10"/>
       <c r="Q17" s="29">
-        <f>COUNTA(F17:P17)</f>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
       <c r="R17" s="38"/>
       <c r="S17" s="34"/>
@@ -2490,15 +2502,17 @@
       <c r="J18" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="K18" s="10"/>
+      <c r="K18" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="L18" s="10"/>
       <c r="M18" s="10"/>
       <c r="N18" s="10"/>
       <c r="O18" s="10"/>
       <c r="P18" s="10"/>
       <c r="Q18" s="29">
-        <f>COUNTA(F18:P18)</f>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
       <c r="R18" s="38"/>
       <c r="S18" s="34"/>
@@ -2546,15 +2560,17 @@
       <c r="J19" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="K19" s="10"/>
+      <c r="K19" s="10" t="s">
+        <v>32</v>
+      </c>
       <c r="L19" s="10"/>
       <c r="M19" s="10"/>
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
       <c r="P19" s="10"/>
       <c r="Q19" s="29">
-        <f>COUNTA(F19:P19)</f>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
       <c r="R19" s="38"/>
       <c r="S19" s="34"/>
@@ -2585,22 +2601,22 @@
       <c r="D20" s="46">
         <v>13</v>
       </c>
-      <c r="E20" s="58" t="s">
+      <c r="E20" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="F20" s="57"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="57"/>
-      <c r="L20" s="57"/>
-      <c r="M20" s="57"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="57"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="49"/>
+      <c r="M20" s="49"/>
+      <c r="N20" s="49"/>
+      <c r="O20" s="49"/>
       <c r="P20" s="10"/>
       <c r="Q20" s="29">
-        <f>COUNTA(F20:P20)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R20" s="38"/>
@@ -2633,22 +2649,22 @@
         <f t="shared" ca="1" si="0"/>
         <v>14</v>
       </c>
-      <c r="E21" s="59" t="s">
+      <c r="E21" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="F21" s="57"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="57"/>
-      <c r="J21" s="57"/>
-      <c r="K21" s="57"/>
-      <c r="L21" s="57"/>
-      <c r="M21" s="57"/>
-      <c r="N21" s="57"/>
-      <c r="O21" s="57"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="49"/>
+      <c r="M21" s="49"/>
+      <c r="N21" s="49"/>
+      <c r="O21" s="49"/>
       <c r="P21" s="10"/>
       <c r="Q21" s="29">
-        <f>COUNTA(F21:P21)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R21" s="38"/>
@@ -2682,23 +2698,23 @@
         <v>1</v>
       </c>
       <c r="F22" s="30">
-        <f t="shared" ref="F22:P22" si="1">COUNTA(F8:F21)</f>
+        <f t="shared" ref="F22:P22" si="2">COUNTA(F8:F21)</f>
         <v>7</v>
       </c>
       <c r="G22" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="H22" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="I22" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="J22" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="K22" s="30"/>
@@ -2707,7 +2723,7 @@
       <c r="N22" s="30"/>
       <c r="O22" s="30"/>
       <c r="P22" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q22" s="45"/>
